--- a/biology/Botanique/Iris_milesii/Iris_milesii.xlsx
+++ b/biology/Botanique/Iris_milesii/Iris_milesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris de Miles (Iris milesii) est une plante herbacée vivace de la famille des iridacées originaire de l'Himalaya.
 Nom chinois : 红花鸢尾
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle dispose d'un rhizome stolonifère verdâtre.
 La floraison a lieu d'avril à mai. La fleur bleue ou rose lavande comporte trois grands sépales à crête jaune et trois pétales de plus petite taille.
-Cette espèce compte 26 chromosomes[1].
+Cette espèce compte 26 chromosomes.
 L'épithète spécifique est une dédicace de Michael Foster à Frank Miles, artiste londonien et ami d'Oscar Wilde, qui a reçu de son cousin des graines de Chine de cette espèce.
 </t>
         </is>
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette belle espèce d'iris est originaire des régions himalayennes de Chine - Sichuan, Xizang, Yunnan - et d'Inde.
 </t>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Iris de Miles est encore peu diffusé en France malgré sa floraison un peu plus prolongée que celle des principales espèces d'iris commercialisées.
 Il semble craindre des températures très basses - inférieures à -15 °C - ainsi que les gels tardifs et une sécheresse durant la floraison.
